--- a/out.xlsx
+++ b/out.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,343 +390,311 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>习主席的“忙碌指数”再次刷新纪录</v>
+        <v>习近平出席一带一路论坛开幕式并演讲</v>
       </c>
       <c r="B2" t="str">
-        <v>https://mp.weixin.qq.com/s/IfrO-atETK8hAeSrsyMcgg</v>
+        <v>http://www.xinhuanet.com/politics/leaders/2019-04/26/c_1124419109.htm</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>习近平会见马来西亚总理</v>
+        <v>美美与共</v>
       </c>
       <c r="B3" t="str">
-        <v>http://www.xinhuanet.com/politics/leaders/2019-04/25/c_1124417369.htm</v>
+        <v>https://wap.peopleapp.com/article/4100369/3958269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>阿联酋副总统、迪拜酋长</v>
+        <v>新纪录！习近平主席一天会见了14位领导人</v>
       </c>
       <c r="B4" t="str">
-        <v>http://www.xinhuanet.com/politics/leaders/2019-04/25/c_1124417317.htm</v>
+        <v>http://api.cportal.cctv.com/api/newsInsert/ywnr.html?id=ArtiON7Sz6azWcSylvl2dsIe190425&amp;preview=1&amp;version=724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>习近平会见巴布亚新几内亚总理</v>
+        <v xml:space="preserve">“一带一路”的5个关键词 </v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve">http://www.xinhuanet.com/politics/leaders/2019-04/25/c_1124417395.htm </v>
+        <v>http://www.xinhuanet.com/comments/2019-04/25/c_1124415526.htm</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>印尼副总统</v>
+        <v>专题</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve">http://www.xinhuanet.com/politics/leaders/2019-04/25/c_1124417423.htm </v>
+        <v>http://news.cnr.cn/2019zt/yidaiyilu/</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>习近平会见越南总理</v>
+        <v>壮丽70年</v>
       </c>
       <c r="B7" t="str">
-        <v>http://news.cctv.com/2019/04/25/ARTICnMAD3HWCggwkuUm8G5j190425.shtml</v>
+        <v>http://politics.people.com.cn/GB/8198/426296/index.html</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>匈牙利总理</v>
+        <v>时间轴带你看懂“一带一路”上的电商"朋友圈"</v>
       </c>
       <c r="B8" t="str">
-        <v>http://news.cctv.com/2019/04/25/ARTIcWeyPvPdlW86Gk9PwLMq190425.shtml</v>
+        <v>https://mp.weixin.qq.com/s/geV78NAY0skBffDeb4HVBQ</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>一带一路</v>
+        <v>62年、6年？“一带一路”告诉你数字背后的意义</v>
       </c>
       <c r="B9" t="str">
-        <v>http://news.cnr.cn/2019zt/yidaiyilu/</v>
+        <v>https://mp.weixin.qq.com/s/FQK8YW1ogKLI2v_5X6aKig</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>壮丽70年</v>
+        <v>名单很有看头 为什么这一次是这37国领导人来北京？</v>
       </c>
       <c r="B10" t="str">
-        <v>http://politics.people.com.cn/GB/8198/426296/index.html</v>
+        <v>http://baijiahao.baidu.com/s?id=1631833451519172875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>习近平将出席第二届“一带一路”论坛开幕式等活动</v>
+        <v>《证券法》修订案三读，或将迎来资本市场新变革</v>
       </c>
       <c r="B11" t="str">
-        <v>http://news.cctv.com/2019/04/25/ARTIeViDAn0YxXFVaQhRtSw5190425.shtml</v>
+        <v>http://baijiahao.baidu.com/s?id=1631831209682219521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>“一带一路”论坛12场分论坛</v>
+        <v>月薪过万占比：上北深位居前三，广州不如宁杭</v>
       </c>
       <c r="B12" t="str">
-        <v>http://news.cctv.com/2019/04/25/ARTI9L6rODiy0hjfIH4fFJDT190425.shtml</v>
+        <v>http://baijiahao.baidu.com/s?id=1631829757063828315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>企业家大会在北京举行</v>
+        <v>鸡蛋价格连涨五周 “火箭蛋”卷土重来了？</v>
       </c>
       <c r="B13" t="str">
-        <v>http://news.cctv.com/2019/04/25/ARTIb4ZSIWRQUfgMT0Qi1lq0190425.shtml</v>
+        <v>http://baijiahao.baidu.com/s?id=1631827755618243774</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve">“一带一路”任务落实得如何 来看这份世界银行报告 </v>
+        <v>5月起离婚不算首套房？欠水电费留不良记录？权威解释</v>
       </c>
       <c r="B14" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631802526958216597</v>
+        <v>https://3w.huanqiu.com/a/14459a/7MbbQz9Jsu4?agt=8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>《证券法》修订案三读，或将迎来资本市场新变革</v>
+        <v>国家卫健委：将建疫苗追溯体系 支持仿制药替代使用</v>
       </c>
       <c r="B15" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631831209682219521</v>
+        <v>https://3w.huanqiu.com/a/df051c/7Mbd2NuDm4E?agt=8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>月薪过万占比：上北深位居前三，广州不如宁杭</v>
+        <v>国内成品油价或现年内第七涨 加满一箱多花6元</v>
       </c>
       <c r="B16" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631829757063828315</v>
+        <v>http://baijiahao.baidu.com/s?id=1631803119444229516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>鸡蛋价格连涨五周 “火箭蛋”卷土重来了？</v>
+        <v xml:space="preserve">韩国瑜清理门户揪“假韩粉” 呼吁“爱与包容” </v>
       </c>
       <c r="B17" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631827755618243774</v>
+        <v>https://3w.huanqiu.com/a/de583b/7Mb5NrTXgME?agt=8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>5月起离婚不算首套房？欠水电费留不良记录？权威解释</v>
+        <v xml:space="preserve">85岁原子弹“功勋工人”用药困难迎转机 政府部门介入 </v>
       </c>
       <c r="B18" t="str">
-        <v>https://3w.huanqiu.com/a/14459a/7MbbQz9Jsu4?agt=8</v>
+        <v>http://baijiahao.baidu.com/s?id=1631829191959205685</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>国家卫健委：将建疫苗追溯体系 支持仿制药替代使用</v>
+        <v>樊大志任证监会党委委员、纪检监察组组长</v>
       </c>
       <c r="B19" t="str">
-        <v>https://3w.huanqiu.com/a/df051c/7Mbd2NuDm4E?agt=8</v>
+        <v>http://baijiahao.baidu.com/s?id=1631801187872970829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>国内成品油价或现年内第七涨 加满一箱多花6元</v>
+        <v>解放军战力提升 台湾东部不是“台独”势力的避风港</v>
       </c>
       <c r="B20" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631803119444229516</v>
+        <v xml:space="preserve"> http://baijiahao.baidu.com/s?id=1631825643936530138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve">韩国瑜清理门户揪“假韩粉” 呼吁“爱与包容” </v>
+        <v>清华大学再获5亿校友捐赠 将用于环保技术研发等</v>
       </c>
       <c r="B21" t="str">
-        <v>https://3w.huanqiu.com/a/de583b/7Mb5NrTXgME?agt=8</v>
+        <v>http://baijiahao.baidu.com/s?id=1631829180687796517</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">85岁原子弹“功勋工人”用药困难迎转机 政府部门介入 </v>
+        <v>金正恩会晤普京，传递了哪些重要信息？</v>
       </c>
       <c r="B22" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631829191959205685</v>
+        <v>http://baijiahao.baidu.com/s?id=1631804715736898326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>樊大志任证监会党委委员、纪检监察组组长</v>
+        <v>斯里兰卡更正爆炸死亡人数：爆炸造成约253人遇难</v>
       </c>
       <c r="B23" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631801187872970829</v>
+        <v>http://baijiahao.baidu.com/s?id=1631810616368186072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>解放军战力提升 台湾东部不是“台独”势力的避风港</v>
+        <v>美国超万名童子军成员遭性侵 从未发布性侵者名字</v>
       </c>
       <c r="B24" t="str">
-        <v xml:space="preserve"> http://baijiahao.baidu.com/s?id=1631825643936530138</v>
+        <v>http://baijiahao.baidu.com/s?id=1631825342213499742</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>清华大学再获5亿校友捐赠 将用于环保技术研发等</v>
+        <v>拜登参选美国总统 民主党竞选人阵营人数达到20位</v>
       </c>
       <c r="B25" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631829180687796517</v>
+        <v>http://baijiahao.baidu.com/s?id=1631829747466447309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>金正恩会晤普京，传递了哪些重要信息？</v>
+        <v>卢森堡前大公病逝，为何震动整个欧洲？</v>
       </c>
       <c r="B26" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631804715736898326</v>
+        <v>http://baijiahao.baidu.com/s?id=1631838824791118269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>斯里兰卡更正爆炸死亡人数：爆炸造成约253人遇难</v>
+        <v xml:space="preserve">美高官裹挟“五眼联盟”：敏感网络应用要排除华为 </v>
       </c>
       <c r="B27" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631810616368186072</v>
+        <v>https://3w.huanqiu.com/a/de583b/7MaXQlppecU?agt=8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>美国超万名童子军成员遭性侵 从未发布性侵者名字</v>
+        <v>宁波女孩拍6分钟短片在美引轰动 背后故事暖哭</v>
       </c>
       <c r="B28" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631825342213499742</v>
+        <v>https://3w.huanqiu.com/a/14459a/7Mbce0d4eiY?agt=8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>拜登参选美国总统 民主党竞选人阵营人数达到20位</v>
+        <v xml:space="preserve">既抹黑，又“抹红”，绿营两套手段攻击郭台铭 </v>
       </c>
       <c r="B29" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631829747466447309</v>
+        <v>https://3w.huanqiu.com/a/de583b/7MaXQUqLRza?agt=8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>安倍首相特使：处理中日关系，日本不会看美国脸色</v>
+        <v>4天蒸发3万亿！这因素或是主因 北上资金也在大幅净流出</v>
       </c>
       <c r="B30" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631828938511191747</v>
+        <v>http://baijiahao.baidu.com/s?id=1631828191341661114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v xml:space="preserve">美高官裹挟“五眼联盟”：敏感网络应用要排除华为 </v>
+        <v>维权事件后仍涨价 卖车收金融服务费乱局何解？</v>
       </c>
       <c r="B31" t="str">
-        <v>https://3w.huanqiu.com/a/de583b/7MaXQlppecU?agt=8</v>
+        <v>http://baijiahao.baidu.com/s?id=1631812031387351896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>宁波女孩拍6分钟短片在美引轰动 背后故事暖哭</v>
+        <v>乐视网停牌 深交所15个工作日内决定是否暂停其上市</v>
       </c>
       <c r="B32" t="str">
-        <v>https://3w.huanqiu.com/a/14459a/7Mbce0d4eiY?agt=8</v>
+        <v>http://baijiahao.baidu.com/s?id=1631826686431852823</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">既抹黑，又“抹红”，绿营两套手段攻击郭台铭 </v>
+        <v>“版权诉讼”赚了多少？视觉中国:小于主营业务收入的1%</v>
       </c>
       <c r="B33" t="str">
-        <v>https://3w.huanqiu.com/a/de583b/7MaXQUqLRza?agt=8</v>
+        <v>http://baijiahao.baidu.com/s?id=1631837622867262621</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>4天蒸发3万亿！这因素或是主因 北上资金也在大幅净流出</v>
+        <v>衡水通报升降机事故：8人被控制</v>
       </c>
       <c r="B34" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631828191341661114</v>
+        <v>http://baijiahao.baidu.com/s?id=1631832851635023222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>维权事件后仍涨价 卖车收金融服务费乱局何解？</v>
+        <v xml:space="preserve">北大学子弑母案嫌疑人被抓：3D还原案发前嫌犯生活轨迹 </v>
       </c>
       <c r="B35" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631812031387351896</v>
+        <v>http://baijiahao.baidu.com/s?id=1631804267395436501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>乐视网停牌 深交所15个工作日内决定是否暂停其上市</v>
+        <v>史玉柱被带走传言背后：耗时3年的305亿巨购为何频遭唱黑</v>
       </c>
       <c r="B36" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631826686431852823</v>
+        <v>http://baijiahao.baidu.com/s?id=1631799288015354351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>董明珠出手 6人被抓，银隆新能源相关人员涉七宗案件</v>
+        <v>3岁男娃开挖掘机通过两条街 老爸在旁指挥"减速，挂挡"</v>
       </c>
       <c r="B37" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631795350397790380</v>
+        <v>https://3w.huanqiu.com/a/4d0bf0/7MbbE4Gcqys?agt=8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>衡水通报升降机事故：8人被控制</v>
+        <v>脑补“扫码超600即遭传唤” 宜兴男子因造谣被拘留</v>
       </c>
       <c r="B38" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631832851635023222</v>
+        <v>http://baijiahao.baidu.com/s?id=1631804184424370692</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve">北大学子弑母案嫌疑人被抓：3D还原案发前嫌犯生活轨迹 </v>
+        <v>23岁男子杀害继母一家5口 曾与继母儿子合伙开店并生矛盾</v>
       </c>
       <c r="B39" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631804267395436501</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>史玉柱被带走传言背后：耗时3年的305亿巨购为何频遭唱黑</v>
-      </c>
-      <c r="B40" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631799288015354351</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>3岁男娃开挖掘机通过两条街 老爸在旁指挥"减速，挂挡"</v>
-      </c>
-      <c r="B41" t="str">
-        <v>https://3w.huanqiu.com/a/4d0bf0/7MbbE4Gcqys?agt=8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>脑补“扫码超600即遭传唤” 宜兴男子因造谣被拘留</v>
-      </c>
-      <c r="B42" t="str">
-        <v>http://baijiahao.baidu.com/s?id=1631804184424370692</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>23岁男子杀害继母一家5口 曾与继母儿子合伙开店并生矛盾</v>
-      </c>
-      <c r="B43" t="str">
         <v>http://baijiahao.baidu.com/s?id=1631829180486101617</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B39"/>
   </ignoredErrors>
 </worksheet>
 </file>